--- a/Tool2/dataset.xlsx
+++ b/Tool2/dataset.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>提出方式</t>
   </si>
@@ -88,9 +88,6 @@
   </si>
   <si>
     <t>领导经常施加高压，员工压力过大</t>
-  </si>
-  <si>
-    <t>流程，知识库，</t>
   </si>
 </sst>
 </file>
@@ -1296,13 +1293,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="4.46153846153846" customWidth="1"/>
     <col min="2" max="2" width="16.3846153846154" customWidth="1"/>
@@ -1441,11 +1438,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="4:4">
-      <c r="D16" t="s">
-        <v>20</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C2:C4"/>
